--- a/excel_routes/route_ELQ_ATZ_threats.xlsx
+++ b/excel_routes/route_ELQ_ATZ_threats.xlsx
@@ -1,55 +1,121 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_170126_at_23.33_RETRY\reports\excel_routes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407F9F9B-82C8-4F9F-A22C-FFE4C8CB35C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="THREAT_ALERT" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="THREAT_ALERT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Air Cairo Flight</t>
+  </si>
+  <si>
+    <t>Market Threat Airline</t>
+  </si>
+  <si>
+    <t>OAL Fare Threat</t>
+  </si>
+  <si>
+    <t>Our Fare</t>
+  </si>
+  <si>
+    <t>Fare Dif</t>
+  </si>
+  <si>
+    <t>OAL Baggage</t>
+  </si>
+  <si>
+    <t>Our Baggage</t>
+  </si>
+  <si>
+    <t>Bag Allowance Dif</t>
+  </si>
+  <si>
+    <t>IMPACT</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>14-FEB-26</t>
+  </si>
+  <si>
+    <t>SM-436</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-634</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003498DB"/>
-        <bgColor rgb="003498DB"/>
+        <fgColor rgb="FF3498DB"/>
+        <bgColor rgb="FF3498DB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
+        <fgColor rgb="FFD4EDDA"/>
+        <bgColor rgb="FFD4EDDA"/>
       </patternFill>
     </fill>
   </fills>
@@ -62,99 +128,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -442,132 +458,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="153.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Air Cairo Flight</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Market Threat Airline</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>OAL Fare Threat</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Our Fare</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Fare Dif</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OAL Baggage</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Our Baggage</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Bag Allowance Dif</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IMPACT</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>14-FEB-26</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>SM-436</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
         <v>434</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2">
         <v>513</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="2">
         <v>-79</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="2">
         <v>46</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="2">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>-16</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excel_routes/route_ELQ_ATZ_threats.xlsx
+++ b/excel_routes/route_ELQ_ATZ_threats.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>547</v>
+        <v>602</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-212</v>
+        <v>-257</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,17 +583,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>547</v>
+        <v>602</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-202</v>
+        <v>-252</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -618,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -628,26 +628,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>434</v>
+        <v>345</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>513</v>
+        <v>602</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-79</v>
+        <v>-257</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -655,6 +655,141 @@
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>31-JAN-26</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-141</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>602</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>-252</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-141</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>663</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>-263</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-116</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>401</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>663</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>-262</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_ELQ_ATZ_threats.xlsx
+++ b/excel_routes/route_ELQ_ATZ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -50,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -71,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,6 +86,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,7 +473,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -528,7 +537,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -542,13 +551,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-257</v>
+        <v>-319</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -573,7 +582,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -583,17 +592,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-252</v>
+        <v>-318</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -628,26 +637,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>345</v>
+        <v>524</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-257</v>
+        <v>-139</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -663,7 +672,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -673,17 +682,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-252</v>
+        <v>-318</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -708,7 +717,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>04-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -718,17 +727,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>663</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-263</v>
+        <v>-262</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -753,7 +762,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -767,13 +776,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>663</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-262</v>
+        <v>-313</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -790,6 +799,411 @@
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-592</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>370</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>663</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>-293</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>07-FEB-26</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-141</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>663</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>-263</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-141</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>400</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>895</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>-495</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-592</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>407</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>895</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-488</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-116</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>521</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>895</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>-374</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>14-FEB-26</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-634</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>732</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>895</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>-163</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>25-FEB-26</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-141</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>-319</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>25-FEB-26</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-106</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>-319</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>25-FEB-26</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>SM-436</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-592</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>364</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>669</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-305</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_ELQ_ATZ_threats.xlsx
+++ b/excel_routes/route_ELQ_ATZ_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BFD4B8-476B-4125-8A7C-FD63606A2AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5C1CB2-93A3-4947-98ED-6BB7E3135FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -60,52 +60,43 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>31-JAN-26</t>
+  </si>
+  <si>
+    <t>SM-436</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-592</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>Nile Air NP-116</t>
+  </si>
+  <si>
+    <t>EgyptAir MS-634</t>
+  </si>
+  <si>
     <t>04-FEB-26</t>
   </si>
   <si>
-    <t>SM-436</t>
-  </si>
-  <si>
     <t>Nile Air NP-106</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt E5-592</t>
-  </si>
-  <si>
     <t>07-FEB-26</t>
   </si>
   <si>
-    <t>Nile Air NP-116</t>
+    <t>Nesma Airlines NE-141</t>
+  </si>
+  <si>
+    <t>14-FEB-26</t>
   </si>
   <si>
     <t>MEDIUM THREAT - MONITOR</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-141</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-634</t>
-  </si>
-  <si>
-    <t>11-FEB-26</t>
-  </si>
-  <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>HIGH THREAT ALERT - NEED ACTION</t>
-  </si>
-  <si>
-    <t>18-FEB-26</t>
-  </si>
-  <si>
-    <t>21-FEB-26</t>
   </si>
   <si>
     <t>25-FEB-26</t>
@@ -135,7 +126,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,12 +149,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF3CD"/>
         <bgColor rgb="FFFFF3CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8D7DA"/>
-        <bgColor rgb="FFF8D7DA"/>
       </patternFill>
     </fill>
   </fills>
@@ -194,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,9 +191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,7 +496,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +510,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -578,13 +560,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="E2" s="2">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F2" s="2">
-        <v>-268</v>
+        <v>-319</v>
       </c>
       <c r="G2" s="2">
         <v>30</v>
@@ -613,13 +595,13 @@
         <v>16</v>
       </c>
       <c r="D3" s="2">
-        <v>439</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F3" s="2">
-        <v>-230</v>
+        <v>-318</v>
       </c>
       <c r="G3" s="2">
         <v>30</v>
@@ -639,34 +621,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="2">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="E4" s="2">
-        <v>818</v>
+        <v>663</v>
       </c>
       <c r="F4" s="2">
-        <v>-468</v>
+        <v>-139</v>
       </c>
       <c r="G4" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
+        <v>-16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>15</v>
@@ -674,22 +656,22 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2">
-        <v>818</v>
+        <v>663</v>
       </c>
       <c r="F5" s="2">
-        <v>-448</v>
+        <v>-318</v>
       </c>
       <c r="G5" s="2">
         <v>30</v>
@@ -700,8 +682,8 @@
       <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>15</v>
@@ -709,22 +691,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E6" s="2">
-        <v>818</v>
+        <v>663</v>
       </c>
       <c r="F6" s="2">
-        <v>-418</v>
+        <v>-262</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -735,8 +717,8 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>19</v>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>15</v>
@@ -744,34 +726,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>612</v>
+        <v>350</v>
       </c>
       <c r="E7" s="2">
-        <v>818</v>
+        <v>663</v>
       </c>
       <c r="F7" s="2">
-        <v>-206</v>
+        <v>-313</v>
       </c>
       <c r="G7" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>-16</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>15</v>
@@ -779,22 +761,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E8" s="2">
-        <v>740</v>
+        <v>663</v>
       </c>
       <c r="F8" s="2">
-        <v>-357</v>
+        <v>-293</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -814,22 +796,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
-        <v>521</v>
+        <v>400</v>
       </c>
       <c r="E9" s="2">
-        <v>740</v>
+        <v>663</v>
       </c>
       <c r="F9" s="2">
-        <v>-219</v>
+        <v>-263</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -849,22 +831,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>400</v>
       </c>
       <c r="E10" s="2">
-        <v>1013</v>
+        <v>895</v>
       </c>
       <c r="F10" s="2">
-        <v>-613</v>
+        <v>-495</v>
       </c>
       <c r="G10" s="2">
         <v>30</v>
@@ -875,8 +857,8 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>24</v>
+      <c r="J10" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>15</v>
@@ -884,34 +866,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>407</v>
+      </c>
+      <c r="E11" s="2">
+        <v>895</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-488</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>401</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1013</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-612</v>
-      </c>
-      <c r="G11" s="2">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>15</v>
@@ -919,7 +901,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -928,13 +910,13 @@
         <v>16</v>
       </c>
       <c r="D12" s="2">
-        <v>407</v>
+        <v>521</v>
       </c>
       <c r="E12" s="2">
-        <v>1013</v>
+        <v>895</v>
       </c>
       <c r="F12" s="2">
-        <v>-606</v>
+        <v>-374</v>
       </c>
       <c r="G12" s="2">
         <v>30</v>
@@ -945,8 +927,8 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>24</v>
+      <c r="J12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>15</v>
@@ -954,22 +936,22 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
-        <v>892</v>
+        <v>732</v>
       </c>
       <c r="E13" s="2">
-        <v>1013</v>
+        <v>895</v>
       </c>
       <c r="F13" s="2">
-        <v>-121</v>
+        <v>-163</v>
       </c>
       <c r="G13" s="2">
         <v>46</v>
@@ -980,8 +962,8 @@
       <c r="I13" s="2">
         <v>-16</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>14</v>
+      <c r="J13" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>15</v>
@@ -989,22 +971,22 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2">
         <v>350</v>
       </c>
       <c r="E14" s="2">
-        <v>564</v>
+        <v>669</v>
       </c>
       <c r="F14" s="2">
-        <v>-214</v>
+        <v>-319</v>
       </c>
       <c r="G14" s="2">
         <v>30</v>
@@ -1024,13 +1006,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>350</v>
@@ -1059,22 +1041,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E16" s="2">
         <v>669</v>
       </c>
       <c r="F16" s="2">
-        <v>-299</v>
+        <v>-305</v>
       </c>
       <c r="G16" s="2">
         <v>30</v>
@@ -1089,111 +1071,6 @@
         <v>14</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2">
-        <v>383</v>
-      </c>
-      <c r="E17" s="2">
-        <v>604</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-221</v>
-      </c>
-      <c r="G17" s="2">
-        <v>30</v>
-      </c>
-      <c r="H17" s="2">
-        <v>30</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="2">
-        <v>400</v>
-      </c>
-      <c r="E18" s="2">
-        <v>604</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-204</v>
-      </c>
-      <c r="G18" s="2">
-        <v>30</v>
-      </c>
-      <c r="H18" s="2">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2">
-        <v>401</v>
-      </c>
-      <c r="E19" s="2">
-        <v>604</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-203</v>
-      </c>
-      <c r="G19" s="2">
-        <v>30</v>
-      </c>
-      <c r="H19" s="2">
-        <v>30</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_ELQ_ATZ_threats.xlsx
+++ b/excel_routes/route_ELQ_ATZ_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,12 +44,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="003498DB"/>
         <bgColor rgb="003498DB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D4EDDA"/>
-        <bgColor rgb="00D4EDDA"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -551,13 +542,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>916</v>
+        <v>1793</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-398</v>
+        <v>-1214</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -570,7 +561,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -582,7 +573,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -596,13 +587,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>916</v>
+        <v>1793</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-396</v>
+        <v>-1193</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -615,7 +606,7 @@
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -627,7 +618,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>25-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -637,17 +628,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>916</v>
+        <v>1793</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-366</v>
+        <v>-1193</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -660,7 +651,7 @@
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -682,28 +673,28 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>600</v>
+        <v>1178</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>1793</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-1193</v>
+        <v>-615</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -717,7 +708,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -727,17 +718,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1793</v>
+        <v>2183</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-1193</v>
+        <v>-1163</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -748,7 +739,7 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -762,7 +753,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -772,17 +763,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>609</v>
+        <v>1080</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1793</v>
+        <v>2183</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-1184</v>
+        <v>-1103</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -793,7 +784,7 @@
       <c r="I7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="4" t="inlineStr">
+      <c r="J7" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -807,7 +798,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -821,13 +812,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1178</v>
+        <v>1495</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1793</v>
+        <v>2183</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-615</v>
+        <v>-688</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>46</v>
@@ -838,192 +829,12 @@
       <c r="I8" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>25-MAR-26</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>SM-436</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-592</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>828</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1143</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>-315</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>28-MAR-26</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>SM-436</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-592</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>833</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>2183</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>-1350</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>28-MAR-26</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>SM-436</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-116</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>1080</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>2183</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>-1103</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>28-MAR-26</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>SM-436</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>1495</v>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>2183</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>-688</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J12" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
